--- a/results/Choice_Gamma.xlsx
+++ b/results/Choice_Gamma.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grbi\PycharmProjects\cftc_neu\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDA287B-AC81-4FA1-AD86-1EC4A09784B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605A0AA-2A35-41E2-A907-2A40562B82F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nonc_expo" sheetId="1" r:id="rId1"/>
-    <sheet name="mm_expo" sheetId="2" r:id="rId2"/>
-    <sheet name="mm_ratio" sheetId="3" r:id="rId3"/>
-    <sheet name="nonc_ratio" sheetId="4" r:id="rId4"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId2"/>
+    <sheet name="mm_expo" sheetId="2" r:id="rId3"/>
+    <sheet name="mm_ratio" sheetId="3" r:id="rId4"/>
+    <sheet name="nonc_ratio" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="40">
   <si>
     <t>dom</t>
   </si>
@@ -133,6 +134,27 @@
   <si>
     <t>min</t>
   </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Live Stocks</t>
+  </si>
+  <si>
+    <t>multiplicative inverse</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +185,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -230,10 +265,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,7 +292,1706 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nonc_expo!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multiplicative inverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>nonc_expo!$A$2:$B$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="22"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>W</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>KW</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>QS</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CL</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>HO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>XB</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LC</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>LH</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>FC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>GC</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SI</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>HG</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nonc_expo!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.46034102461947751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62137014594433793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25120427375622462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5625570184957448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39683913026458711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43553451682475408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45635438365703818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43511389133224038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46909652292663651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35178822086137101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42975553808488198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29395854490161588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60911139765324662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21405246943648951</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34589385281602558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32649973792381581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21560201353516539</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24834773570291099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24834773570291099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48076233504213289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46292672825797482</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3710840115438383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D21-4414-AB34-3FB133284FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nonc_expo!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>nonc_expo!$A$2:$B$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="22"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>W</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>KW</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>QS</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CL</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>HO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>XB</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LC</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>LH</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>FC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>GC</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SI</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>HG</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nonc_expo!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.42961101743744562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56344855644001735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27196360836346339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51394844835666686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42033074186187058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40460250296354422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43845695210228269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36781849004069989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47917063785899322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34990680322634332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43737970728857323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28796178450333032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62024376205292064</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20007164858199419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35708905642902561</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27095116913179462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18988126134304201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1795785503220314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47778335952658479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46278041399411263</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44901639036488472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30975379007115589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D21-4414-AB34-3FB133284FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nonc_expo!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>nonc_expo!$A$2:$B$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="22"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>W</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>KW</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>QS</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CL</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>HO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>XB</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LC</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>LH</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>FC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>GC</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SI</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>HG</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nonc_expo!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.46213754479445229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56136961492383519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6918739373432492E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55150930110510277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24623219258555271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46175085875633931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48949929910288381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36180368645553629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32554837172882872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22081925580438341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28624259343144071</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20792956131101481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44379147709301348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1215162269249046</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19660840695439261</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22375173435276971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1315871917486537E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2006380692738757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37436888416697672</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52223687279316344</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40898734823408861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35672392442451589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D21-4414-AB34-3FB133284FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nonc_expo!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>arctan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>nonc_expo!$A$2:$B$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="22"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>W</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>KW</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>QS</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CL</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>HO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>XB</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LC</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>LH</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>FC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>GC</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SI</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>HG</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nonc_expo!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.46140805320496159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6228879360390811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254491830646841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56409942731275087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40173548226627959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43343951872049818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45328316214484249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43985244635718818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47476614740026662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35707780751456653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43068597419257593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29301249116846689</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61637057106241833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21766896454904111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3498343525424028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32478781496047282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2199076832291639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25058148596725333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48200795185409662</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47921086047482853</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46540130028451021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37119574779953002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D21-4414-AB34-3FB133284FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nonc_expo!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>nonc_expo!$A$2:$B$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="22"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>W</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>KW</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>QS</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CL</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>HO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>XB</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LC</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>LH</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>FC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>GC</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SI</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>HG</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nonc_expo!$G$2:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.4727173632105045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59575756208140573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13330331338032181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5687022970898481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3177739407205048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.471727367840723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48561939112506608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40953775164237682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3943820180962353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28659221509620708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35686956324361552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26496401161006489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54063753408274495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17278500117033099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27590671697181413</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28811182226219822</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13267600334709931</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24515221556307379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4267602747190703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52082566074877112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44181722105826859</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38316514798366702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D21-4414-AB34-3FB133284FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nonc_expo!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sqrt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>nonc_expo!$A$2:$B$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="22"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>W</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SM</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>KW</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>QS</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CL</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>CO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>HO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>XB</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LC</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>LH</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>FC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>GC</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SI</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>HG</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Agriculture</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Live Stocks</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Metals</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nonc_expo!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.47795808704189002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61039565715910082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17503216137287669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57697028044935217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34102872524047517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47456833434834789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48345339812746663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42737797558650731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41852620183366129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30761051242434789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3993210882413033</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28936997646936269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56074750222813163</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.189970432724339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30022522410102298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31364408050602949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17475569923799689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26674596130563721</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43774538058169871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51416174907866552</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45227416164581391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38906801526277018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9D21-4414-AB34-3FB133284FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="678440608"/>
+        <c:axId val="678441592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="678440608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678441592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678441592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678440608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -698,7 +2438,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1214,7 +3497,52 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9FEB21A0-408F-43FB-A709-4001D7546846}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9278371" cy="6046674"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7239A7-01F4-47D8-A6D3-BD36B72E7589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1256,7 +3584,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1576,656 +3904,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="5.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.46034102461947751</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.42961101743744562</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.46213754479445229</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.46140805320496159</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.4727173632105045</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.47795808704189002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.62137014594433793</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.56344855644001735</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.56136961492383519</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.6228879360390811</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.59575756208140573</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.61039565715910082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.25120427375622462</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.27196360836346339</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.6918739373432492E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.254491830646841</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.13330331338032181</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.17503216137287669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.5625570184957448</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.51394844835666686</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.55150930110510277</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.56409942731275087</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.5687022970898481</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.57697028044935217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.39683913026458711</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.42033074186187058</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.24623219258555271</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.40173548226627959</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.3177739407205048</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.34102872524047517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.43553451682475408</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.40460250296354422</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.46175085875633931</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.43343951872049818</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.471727367840723</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.47456833434834789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.45635438365703818</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.43845695210228269</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.48949929910288381</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.45328316214484249</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.48561939112506608</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.48345339812746663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.43511389133224038</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.36781849004069989</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.36180368645553629</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.43985244635718818</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.40953775164237682</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.42737797558650731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.46909652292663651</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.47917063785899322</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.32554837172882872</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.47476614740026662</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.3943820180962353</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.41852620183366129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.35178822086137101</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.34990680322634332</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.22081925580438341</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.35707780751456653</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.28659221509620708</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.30761051242434789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C12" s="8">
         <v>0.42975553808488198</v>
       </c>
-      <c r="C2">
+      <c r="D12" s="8">
         <v>0.43737970728857323</v>
       </c>
-      <c r="D2">
+      <c r="E12" s="8">
         <v>0.28624259343144071</v>
       </c>
-      <c r="E2">
+      <c r="F12" s="8">
         <v>0.43068597419257593</v>
       </c>
-      <c r="F2">
+      <c r="G12" s="8">
         <v>0.35686956324361552</v>
       </c>
-      <c r="G2">
+      <c r="H12" s="8">
         <v>0.3993210882413033</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C13" s="8">
         <v>0.29395854490161588</v>
       </c>
-      <c r="C3">
+      <c r="D13" s="8">
         <v>0.28796178450333032</v>
       </c>
-      <c r="D3">
+      <c r="E13" s="8">
         <v>0.20792956131101481</v>
       </c>
-      <c r="E3">
+      <c r="F13" s="8">
         <v>0.29301249116846689</v>
       </c>
-      <c r="F3">
+      <c r="G13" s="8">
         <v>0.26496401161006489</v>
       </c>
-      <c r="G3">
+      <c r="H13" s="8">
         <v>0.28936997646936269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.46034102461947751</v>
-      </c>
-      <c r="C4">
-        <v>0.42961101743744562</v>
-      </c>
-      <c r="D4">
-        <v>0.46213754479445229</v>
-      </c>
-      <c r="E4">
-        <v>0.46140805320496159</v>
-      </c>
-      <c r="F4">
-        <v>0.4727173632105045</v>
-      </c>
-      <c r="G4">
-        <v>0.47795808704189002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.60911139765324662</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.62024376205292064</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.44379147709301348</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.61637057106241833</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.54063753408274495</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.56074750222813163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.21405246943648951</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.20007164858199419</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.1215162269249046</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.21766896454904111</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.17278500117033099</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.189970432724339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.34589385281602558</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.35708905642902561</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.19660840695439261</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.3498343525424028</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.27590671697181413</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.30022522410102298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.32649973792381581</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.27095116913179462</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.22375173435276971</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.32478781496047282</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.28811182226219822</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.31364408050602949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.21560201353516539</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.18988126134304201</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5.1315871917486537E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.2199076832291639</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.13267600334709931</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.17475569923799689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.24834773570291099</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.1795785503220314</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.2006380692738757</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.25058148596725333</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.24515221556307379</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.26674596130563721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.24834773570291099</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.47778335952658479</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.37436888416697672</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.48200795185409662</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.4267602747190703</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.43774538058169871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.48076233504213289</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.46278041399411263</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.52223687279316344</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.47921086047482853</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.52082566074877112</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.51416174907866552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.46292672825797482</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.44901639036488472</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.40898734823408861</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.46540130028451021</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.44181722105826859</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.45227416164581391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.3710840115438383</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.30975379007115589</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.35672392442451589</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.37119574779953002</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.38316514798366702</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.38906801526277018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:H24" si="0">AVERAGE(C1:C23)</f>
+        <v>0.39484278314924631</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38553402964821709</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32325908343218129</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4074412277132744</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37208110877472328</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39004320931667263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:G25" si="1">MAX(C1:C23)</f>
         <v>0.62137014594433793</v>
       </c>
-      <c r="C5">
-        <v>0.56344855644001735</v>
-      </c>
-      <c r="D5">
-        <v>0.56136961492383519</v>
-      </c>
-      <c r="E5">
-        <v>0.6228879360390811</v>
-      </c>
-      <c r="F5">
-        <v>0.59575756208140573</v>
-      </c>
-      <c r="G5">
-        <v>0.61039565715910082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.25120427375622462</v>
-      </c>
-      <c r="C6">
-        <v>0.27196360836346339</v>
-      </c>
-      <c r="D6">
-        <v>3.6918739373432492E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.254491830646841</v>
-      </c>
-      <c r="F6">
-        <v>0.13330331338032181</v>
-      </c>
-      <c r="G6">
-        <v>0.17503216137287669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.5625570184957448</v>
-      </c>
-      <c r="C7">
-        <v>0.51394844835666686</v>
-      </c>
-      <c r="D7">
-        <v>0.55150930110510277</v>
-      </c>
-      <c r="E7">
-        <v>0.56409942731275087</v>
-      </c>
-      <c r="F7">
-        <v>0.5687022970898481</v>
-      </c>
-      <c r="G7">
-        <v>0.57697028044935217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.39683913026458711</v>
-      </c>
-      <c r="C8">
-        <v>0.42033074186187058</v>
-      </c>
-      <c r="D8">
-        <v>0.24623219258555271</v>
-      </c>
-      <c r="E8">
-        <v>0.40173548226627959</v>
-      </c>
-      <c r="F8">
-        <v>0.3177739407205048</v>
-      </c>
-      <c r="G8">
-        <v>0.34102872524047517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>-0.33912633726190022</v>
-      </c>
-      <c r="C9">
-        <v>-0.31322749927670412</v>
-      </c>
-      <c r="D9">
-        <v>-0.94577665938111921</v>
-      </c>
-      <c r="E9">
-        <v>-0.3204901814358363</v>
-      </c>
-      <c r="F9">
-        <v>-0.67031558486012144</v>
-      </c>
-      <c r="G9">
-        <v>-0.52862482100630626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.32649973792381581</v>
-      </c>
-      <c r="C10">
-        <v>0.27095116913179462</v>
-      </c>
-      <c r="D10">
-        <v>0.22375173435276971</v>
-      </c>
-      <c r="E10">
-        <v>0.32478781496047282</v>
-      </c>
-      <c r="F10">
-        <v>0.28811182226219822</v>
-      </c>
-      <c r="G10">
-        <v>0.31364408050602949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.47694792206836972</v>
-      </c>
-      <c r="C11">
-        <v>0.47778335952658479</v>
-      </c>
-      <c r="D11">
-        <v>0.37436888416697672</v>
-      </c>
-      <c r="E11">
-        <v>0.48200795185409662</v>
-      </c>
-      <c r="F11">
-        <v>0.4267602747190703</v>
-      </c>
-      <c r="G11">
-        <v>0.43774538058169871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.43553451682475408</v>
-      </c>
-      <c r="C12">
-        <v>0.40460250296354422</v>
-      </c>
-      <c r="D12">
-        <v>0.46175085875633931</v>
-      </c>
-      <c r="E12">
-        <v>0.43343951872049818</v>
-      </c>
-      <c r="F12">
-        <v>0.471727367840723</v>
-      </c>
-      <c r="G12">
-        <v>0.47456833434834789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.60911139765324662</v>
-      </c>
-      <c r="C13">
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
         <v>0.62024376205292064</v>
       </c>
-      <c r="D13">
-        <v>0.44379147709301348</v>
-      </c>
-      <c r="E13">
-        <v>0.61637057106241833</v>
-      </c>
-      <c r="F13">
-        <v>0.54063753408274495</v>
-      </c>
-      <c r="G13">
-        <v>0.56074750222813163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.21405246943648951</v>
-      </c>
-      <c r="C14">
-        <v>0.20007164858199419</v>
-      </c>
-      <c r="D14">
-        <v>0.1215162269249046</v>
-      </c>
-      <c r="E14">
-        <v>0.21766896454904111</v>
-      </c>
-      <c r="F14">
-        <v>0.17278500117033099</v>
-      </c>
-      <c r="G14">
-        <v>0.189970432724339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.34589385281602558</v>
-      </c>
-      <c r="C15">
-        <v>0.35708905642902561</v>
-      </c>
-      <c r="D15">
-        <v>0.19660840695439261</v>
-      </c>
-      <c r="E15">
-        <v>0.3498343525424028</v>
-      </c>
-      <c r="F15">
-        <v>0.27590671697181413</v>
-      </c>
-      <c r="G15">
-        <v>0.30022522410102298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.48076233504213289</v>
-      </c>
-      <c r="C16">
-        <v>0.46278041399411263</v>
-      </c>
-      <c r="D16">
-        <v>0.52223687279316344</v>
-      </c>
-      <c r="E16">
-        <v>0.47921086047482853</v>
-      </c>
-      <c r="F16">
-        <v>0.52082566074877112</v>
-      </c>
-      <c r="G16">
-        <v>0.51416174907866552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.21560201353516539</v>
-      </c>
-      <c r="C17">
-        <v>0.18988126134304201</v>
-      </c>
-      <c r="D17">
-        <v>5.1315871917486537E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.2199076832291639</v>
-      </c>
-      <c r="F17">
-        <v>0.13267600334709931</v>
-      </c>
-      <c r="G17">
-        <v>0.17475569923799689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.46292672825797482</v>
-      </c>
-      <c r="C18">
-        <v>0.44901639036488472</v>
-      </c>
-      <c r="D18">
-        <v>0.40898734823408861</v>
-      </c>
-      <c r="E18">
-        <v>0.46540130028451021</v>
-      </c>
-      <c r="F18">
-        <v>0.44181722105826859</v>
-      </c>
-      <c r="G18">
-        <v>0.45227416164581391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.45635438365703818</v>
-      </c>
-      <c r="C19">
-        <v>0.43845695210228269</v>
-      </c>
-      <c r="D19">
-        <v>0.48949929910288381</v>
-      </c>
-      <c r="E19">
-        <v>0.45328316214484249</v>
-      </c>
-      <c r="F19">
-        <v>0.48561939112506608</v>
-      </c>
-      <c r="G19">
-        <v>0.48345339812746663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.43511389133224038</v>
-      </c>
-      <c r="C20">
-        <v>0.36781849004069989</v>
-      </c>
-      <c r="D20">
-        <v>0.36180368645553629</v>
-      </c>
-      <c r="E20">
-        <v>0.43985244635718818</v>
-      </c>
-      <c r="F20">
-        <v>0.40953775164237682</v>
-      </c>
-      <c r="G20">
-        <v>0.42737797558650731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.24834773570291099</v>
-      </c>
-      <c r="C21">
-        <v>0.1795785503220314</v>
-      </c>
-      <c r="D21">
-        <v>0.2006380692738757</v>
-      </c>
-      <c r="E21">
-        <v>0.25058148596725333</v>
-      </c>
-      <c r="F21">
-        <v>0.24515221556307379</v>
-      </c>
-      <c r="G21">
-        <v>0.26674596130563721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.3710840115438383</v>
-      </c>
-      <c r="C22">
-        <v>0.30975379007115589</v>
-      </c>
-      <c r="D22">
-        <v>0.35672392442451589</v>
-      </c>
-      <c r="E22">
-        <v>0.37119574779953002</v>
-      </c>
-      <c r="F22">
-        <v>0.38316514798366702</v>
-      </c>
-      <c r="G22">
-        <v>0.38906801526277018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.46909652292663651</v>
-      </c>
-      <c r="C23">
-        <v>0.47917063785899322</v>
-      </c>
-      <c r="D23">
-        <v>0.32554837172882872</v>
-      </c>
-      <c r="E23">
-        <v>0.47476614740026662</v>
-      </c>
-      <c r="F23">
-        <v>0.3943820180962353</v>
-      </c>
-      <c r="G23">
-        <v>0.41852620183366129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.35178822086137101</v>
-      </c>
-      <c r="C24">
-        <v>0.34990680322634332</v>
-      </c>
-      <c r="D24">
-        <v>0.22081925580438341</v>
-      </c>
-      <c r="E24">
-        <v>0.35707780751456653</v>
-      </c>
-      <c r="F24">
-        <v>0.28659221509620708</v>
-      </c>
-      <c r="G24">
-        <v>0.30761051242434789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <f>AVERAGE(B2:B24)</f>
-        <v>0.37287022079943383</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:G25" si="0">AVERAGE(C2:C24)</f>
-        <v>0.35515309360800312</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.26808361635334227</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0.37579203601113909</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.32675951339929532</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0.35010112104176055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <f>MAX(B2:B24)</f>
-        <v>0.62137014594433793</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:G26" si="1">MAX(C2:C24)</f>
-        <v>0.62024376205292064</v>
-      </c>
-      <c r="D26">
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>0.56136961492383519</v>
       </c>
-      <c r="E26">
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>0.6228879360390811</v>
       </c>
-      <c r="F26">
+      <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>0.59575756208140573</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0.61039565715910082</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="H25" s="3">
+        <f t="shared" ref="H25" si="2">AVERAGE(H2:H24)</f>
+        <v>0.39004320931667263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <f>MIN(B2:B24)</f>
-        <v>-0.33912633726190022</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:G27" si="2">MIN(C2:C24)</f>
-        <v>-0.31322749927670412</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>-0.94577665938111921</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>-0.3204901814358363</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>-0.67031558486012144</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>-0.52862482100630626</v>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:G26" si="3">MIN(C1:C23)</f>
+        <v>0.21405246943648951</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1795785503220314</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="3"/>
+        <v>3.6918739373432492E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.21766896454904111</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13267600334709931</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ref="H26" si="4">AVERAGE(H3:H25)</f>
+        <v>0.38622082332861973</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G24">
-    <cfRule type="colorScale" priority="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:H23">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2249,7 +4639,7 @@
       <selection activeCell="A25" sqref="A25:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2910,14 +5300,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G27"/>
+      <selection activeCell="G26" sqref="A24:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2959,22 +5353,22 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.34229967157958491</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.31639599670506091</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.27071034970523722</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.34183275555401271</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.31602078079350998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.33805358687198328</v>
       </c>
     </row>
@@ -2982,22 +5376,22 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.35202149999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.32847999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.24682750000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.35742240504900002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.30152899999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.32144654507802001</v>
       </c>
     </row>
@@ -3005,22 +5399,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.56179035628131957</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.48913968765656229</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.48993108608467317</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.56680857283431085</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.53065743442970548</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.5482587425637877</v>
       </c>
     </row>
@@ -3028,22 +5422,22 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.531063807148203</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.50405649591117951</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.47206902009802437</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.53459740741920414</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0.50494849430277622</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0.51833619155940203</v>
       </c>
     </row>
@@ -3051,22 +5445,22 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.48762731148926503</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.44348157858222892</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.4293485194033676</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0.49306058040447642</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>0.46449673977668138</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>0.4770468071763444</v>
       </c>
     </row>
@@ -3074,483 +5468,460 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.30181160831271892</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.25145267611872663</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.23921872619265799</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.30500377241024851</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>0.27325844692280882</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>0.28973739014572042</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.34614997427031652</v>
-      </c>
-      <c r="C9">
-        <v>0.30203562904975212</v>
-      </c>
-      <c r="D9">
-        <v>0.28086858937825832</v>
-      </c>
-      <c r="E9">
-        <v>0.34848652650682971</v>
-      </c>
-      <c r="F9">
-        <v>0.32439748995873668</v>
-      </c>
-      <c r="G9">
-        <v>0.3399425977654088</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.22683816413932961</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.15082723820664171</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.1013297647352502</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.22630575625602339</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.17787803443630409</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.20903003458788111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.22683816413932961</v>
-      </c>
-      <c r="C10">
-        <v>0.15082723820664171</v>
-      </c>
-      <c r="D10">
-        <v>0.1013297647352502</v>
-      </c>
-      <c r="E10">
-        <v>0.22630575625602339</v>
-      </c>
-      <c r="F10">
-        <v>0.17787803443630409</v>
-      </c>
-      <c r="G10">
-        <v>0.20903003458788111</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.56861011106649206</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.47687335583708518</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.55793748734908299</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.57033284053981848</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.577288022786558</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.58338045897286017</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.56861011106649206</v>
-      </c>
-      <c r="C11">
-        <v>0.47687335583708518</v>
-      </c>
-      <c r="D11">
-        <v>0.55793748734908299</v>
-      </c>
-      <c r="E11">
-        <v>0.57033284053981848</v>
-      </c>
-      <c r="F11">
-        <v>0.577288022786558</v>
-      </c>
-      <c r="G11">
-        <v>0.58338045897286017</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.42968322247085378</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.33657060157798963</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.38526962932023823</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.43471589945328809</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.42024637124066228</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.43016780659067683</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.42968322247085378</v>
-      </c>
-      <c r="C12">
-        <v>0.33657060157798963</v>
-      </c>
-      <c r="D12">
-        <v>0.38526962932023823</v>
-      </c>
-      <c r="E12">
-        <v>0.43471589945328809</v>
-      </c>
-      <c r="F12">
-        <v>0.42024637124066228</v>
-      </c>
-      <c r="G12">
-        <v>0.43016780659067683</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.26710935511042261</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.20837287936521789</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.18653785796745451</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.26925139109653728</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.26051472196514858</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.27380221820267803</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.26710935511042261</v>
-      </c>
-      <c r="C13">
-        <v>0.20837287936521789</v>
-      </c>
-      <c r="D13">
-        <v>0.18653785796745451</v>
-      </c>
-      <c r="E13">
-        <v>0.26925139109653728</v>
-      </c>
-      <c r="F13">
-        <v>0.26051472196514858</v>
-      </c>
-      <c r="G13">
-        <v>0.27380221820267803</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.27481023431729212</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.21390534801311861</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.17958073131073321</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.2812829938817063</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.2348817539638742</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.26455656542758682</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.27481023431729212</v>
-      </c>
-      <c r="C14">
-        <v>0.21390534801311861</v>
-      </c>
-      <c r="D14">
-        <v>0.17958073131073321</v>
-      </c>
-      <c r="E14">
-        <v>0.2812829938817063</v>
-      </c>
-      <c r="F14">
-        <v>0.2348817539638742</v>
-      </c>
-      <c r="G14">
-        <v>0.26455656542758682</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.26206889163309222</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.23089133197831749</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.18487827000072801</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.26616208892711329</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.23726600112368079</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.2568591908611374</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.26206889163309222</v>
-      </c>
-      <c r="C15">
-        <v>0.23089133197831749</v>
-      </c>
-      <c r="D15">
-        <v>0.18487827000072801</v>
-      </c>
-      <c r="E15">
-        <v>0.26616208892711329</v>
-      </c>
-      <c r="F15">
-        <v>0.23726600112368079</v>
-      </c>
-      <c r="G15">
-        <v>0.2568591908611374</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.3768063105448819</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.35650033247293239</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.34496150321792152</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.37901583519522281</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.36607112141663711</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.37366495030832669</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3768063105448819</v>
-      </c>
-      <c r="C16">
-        <v>0.35650033247293239</v>
-      </c>
-      <c r="D16">
-        <v>0.34496150321792152</v>
-      </c>
-      <c r="E16">
-        <v>0.37901583519522281</v>
-      </c>
-      <c r="F16">
-        <v>0.36607112141663711</v>
-      </c>
-      <c r="G16">
-        <v>0.37366495030832669</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.33710931591269921</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.27540881974732639</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.22714745319976809</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.33385360144116638</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.29368124004264939</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.32081699334761671</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.33710931591269921</v>
-      </c>
-      <c r="C17">
-        <v>0.27540881974732639</v>
-      </c>
-      <c r="D17">
-        <v>0.22714745319976809</v>
-      </c>
-      <c r="E17">
-        <v>0.33385360144116638</v>
-      </c>
-      <c r="F17">
-        <v>0.29368124004264939</v>
-      </c>
-      <c r="G17">
-        <v>0.32081699334761671</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.34861658888000252</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.3210889100924329</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.30756886410433021</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.34943692946851879</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.33462508748243491</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.34599176401324178</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.34861658888000252</v>
-      </c>
-      <c r="C18">
-        <v>0.3210889100924329</v>
-      </c>
-      <c r="D18">
-        <v>0.30756886410433021</v>
-      </c>
-      <c r="E18">
-        <v>0.34943692946851879</v>
-      </c>
-      <c r="F18">
-        <v>0.33462508748243491</v>
-      </c>
-      <c r="G18">
-        <v>0.34599176401324178</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.35202153539311398</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.32848788656988998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.246827503652504</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.35742240504987599</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.30152917371055998</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.32144654507802001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0.35202153539311398</v>
-      </c>
-      <c r="C19">
-        <v>0.32848788656988998</v>
-      </c>
-      <c r="D19">
-        <v>0.246827503652504</v>
-      </c>
-      <c r="E19">
-        <v>0.35742240504987599</v>
-      </c>
-      <c r="F19">
-        <v>0.30152917371055998</v>
-      </c>
-      <c r="G19">
-        <v>0.32144654507802001</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.44587599456352911</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.35370780733355067</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.40646327722398973</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.44871164133868929</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.44531152436964427</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.45477265632012792</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.44587599456352911</v>
-      </c>
-      <c r="C20">
-        <v>0.35370780733355067</v>
-      </c>
-      <c r="D20">
-        <v>0.40646327722398973</v>
-      </c>
-      <c r="E20">
-        <v>0.44871164133868929</v>
-      </c>
-      <c r="F20">
-        <v>0.44531152436964427</v>
-      </c>
-      <c r="G20">
-        <v>0.45477265632012792</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.208247344785261</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.1597616915752276</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1066841260264642</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.20818390551051791</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.17156523561227491</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.20120995988102189</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.208247344785261</v>
-      </c>
-      <c r="C21">
-        <v>0.1597616915752276</v>
-      </c>
-      <c r="D21">
-        <v>0.1066841260264642</v>
-      </c>
-      <c r="E21">
-        <v>0.20818390551051791</v>
-      </c>
-      <c r="F21">
-        <v>0.17156523561227491</v>
-      </c>
-      <c r="G21">
-        <v>0.20120995988102189</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.44866062282387931</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.41576613866089812</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.38618263567144839</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.44969027689772673</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.41930756846102141</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.43178737779040599</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.44866062282387931</v>
-      </c>
-      <c r="C22">
-        <v>0.41576613866089812</v>
-      </c>
-      <c r="D22">
-        <v>0.38618263567144839</v>
-      </c>
-      <c r="E22">
-        <v>0.44969027689772673</v>
-      </c>
-      <c r="F22">
-        <v>0.41930756846102141</v>
-      </c>
-      <c r="G22">
-        <v>0.43178737779040599</v>
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.42404741005745061</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.34067488927720768</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.37537315628668427</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.42755846982604429</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.41296213358431477</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.42186902319303482</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.42404741005745061</v>
-      </c>
-      <c r="C23">
-        <v>0.34067488927720768</v>
-      </c>
-      <c r="D23">
-        <v>0.37537315628668427</v>
-      </c>
-      <c r="E23">
-        <v>0.42755846982604429</v>
-      </c>
-      <c r="F23">
-        <v>0.41296213358431477</v>
-      </c>
-      <c r="G23">
-        <v>0.42186902319303482</v>
+        <v>29</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.51986701238692412</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.46514829663435547</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.46449783193248839</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.52079749125852981</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.50021805228046179</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.51218349266035312</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.51986701238692412</v>
-      </c>
-      <c r="C24">
-        <v>0.46514829663435547</v>
-      </c>
-      <c r="D24">
-        <v>0.46449783193248839</v>
-      </c>
-      <c r="E24">
-        <v>0.52079749125852981</v>
-      </c>
-      <c r="F24">
-        <v>0.50021805228046179</v>
-      </c>
-      <c r="G24">
-        <v>0.51218349266035312</v>
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
+        <f>AVERAGE(B2:B23)</f>
+        <v>0.38414220804268173</v>
+      </c>
+      <c r="C24" s="3">
+        <f>AVERAGE(C2:C23)</f>
+        <v>0.33176152201504527</v>
+      </c>
+      <c r="D24" s="3">
+        <f>AVERAGE(D2:D23)</f>
+        <v>0.31473072826109749</v>
+      </c>
+      <c r="E24" s="3">
+        <f>AVERAGE(E2:E23)</f>
+        <v>0.38673557237200157</v>
+      </c>
+      <c r="F24" s="3">
+        <f>AVERAGE(F2:F23)</f>
+        <v>0.35925033041436705</v>
+      </c>
+      <c r="G24" s="3">
+        <f>AVERAGE(G2:G23)</f>
+        <v>0.37592468098239179</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
-        <f>AVERAGE(B2:B24)</f>
-        <v>0.38241528832575605</v>
+        <f>MAX(B2:B23)</f>
+        <v>0.56861011106649206</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:G25" si="0">AVERAGE(C2:C24)</f>
-        <v>0.33041034506207734</v>
+        <f>MAX(C2:C23)</f>
+        <v>0.50405649591117951</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.31319154013005934</v>
+        <f>MAX(D2:D23)</f>
+        <v>0.55793748734908299</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38499697937813004</v>
+        <f>MAX(E2:E23)</f>
+        <v>0.57033284053981848</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.35766611039365653</v>
+        <f>MAX(F2:F23)</f>
+        <v>0.577288022786558</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.37428913174525624</v>
+        <f>MAX(G2:G23)</f>
+        <v>0.58338045897286017</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
-        <f>MAX(B2:B24)</f>
-        <v>0.56861011106649206</v>
+        <f>MIN(B2:B23)</f>
+        <v>0.208247344785261</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:G26" si="1">MAX(C2:C24)</f>
-        <v>0.50405649591117951</v>
+        <f t="shared" ref="C26:G26" si="0">MIN(C2:C23)</f>
+        <v>0.15082723820664171</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.55793748734908299</v>
+        <f t="shared" si="0"/>
+        <v>0.1013297647352502</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.57033284053981848</v>
+        <f t="shared" si="0"/>
+        <v>0.20818390551051791</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.577288022786558</v>
+        <f t="shared" si="0"/>
+        <v>0.17156523561227491</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.58338045897286017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3">
-        <f>MIN(B2:B24)</f>
-        <v>0.208247344785261</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:G27" si="2">MIN(C2:C24)</f>
-        <v>0.15082723820664171</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1013297647352502</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20818390551051791</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="2"/>
-        <v>0.17156523561227491</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20120995988102189</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:G24">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B3:G23">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3570,11 +5941,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3614,22 +5991,22 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.17003584619350659</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.15267212005439529</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>4.5027492695662752E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.17339211816768829</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.1191628350424789</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.15389422118124371</v>
       </c>
     </row>
@@ -3637,22 +6014,22 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.36124904375258399</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.32363147029285599</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.30065101098292002</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.36671465635949901</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.33800140603162798</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.35488078009804602</v>
       </c>
     </row>
@@ -3660,22 +6037,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.54379450539196239</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.47720123375270251</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.45147096840563461</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.54723807480306119</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.5019530458708954</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.52465621778570437</v>
       </c>
     </row>
@@ -3683,22 +6060,22 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.26052142501965703</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.25224437478894601</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>8.6002146498852294E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.262886840431237</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0.16294557361284701</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0.19728845331408101</v>
       </c>
     </row>
@@ -3706,22 +6083,22 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.37096972452455101</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.32547002540240499</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.26037332726132001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0.37463313927199798</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>0.31500840611861802</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>0.34336714664797202</v>
       </c>
     </row>
@@ -3729,22 +6106,22 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.28526417843300739</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.2492116533668215</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.18825956054920029</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.28904355862697728</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>0.24598846464514629</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>0.28108251298378639</v>
       </c>
     </row>
@@ -3752,22 +6129,22 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.1202784115310666</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>4.2641484982382072E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>-4.604394422138558E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.1244725694361897</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>6.3981425533464531E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>0.1033270533275127</v>
       </c>
     </row>
@@ -3775,22 +6152,22 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.19689865092970429</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>0.14617551203354809</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>7.2869566413072406E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>0.19386175194271121</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>0.150004441589803</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>0.18399717489709411</v>
       </c>
     </row>
@@ -3798,22 +6175,22 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0.26226390985849091</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>0.22521270956237049</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>8.493789078887326E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.26625125618075779</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>0.17084333889403741</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>0.22906893384785501</v>
       </c>
     </row>
@@ -3821,22 +6198,22 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0.13288818111502351</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>0.1067770478123071</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>-4.0209791183283272E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.13475203015746759</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>4.8795427154815552E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>0.1078844066386562</v>
       </c>
     </row>
@@ -3844,22 +6221,22 @@
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0.21628715983752569</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0.18958049813031549</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>0.1455436673989737</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>0.2192536484667085</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>0.1877708978200002</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>0.2113931490685568</v>
       </c>
     </row>
@@ -3867,22 +6244,22 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0.1167061553551524</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>0.1095675271715592</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>4.0247435764057538E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.1212468806415665</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>9.5125279026389786E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>0.1213219413042944</v>
       </c>
     </row>
@@ -3890,22 +6267,22 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>0.2177164784388167</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>0.21427360655763381</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>0.1069885282221887</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.22269179885272949</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>0.16945819087030009</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>0.21024740003686809</v>
       </c>
     </row>
@@ -3913,22 +6290,22 @@
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>0.21638032781319411</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>0.17157872288807949</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>5.3858691174112787E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.2179065225773397</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>0.14488266128734439</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>0.1910567007369561</v>
       </c>
     </row>
@@ -3936,22 +6313,22 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>0.15391103387364011</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>0.14400758351267559</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>4.1490047188360468E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.1579652861820813</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>0.1111920061560062</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>0.14687101298340821</v>
       </c>
     </row>
@@ -3959,22 +6336,22 @@
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>0.34453844040547099</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>0.300134972</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0.27427967763928002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.348873031715766</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>0.32021770608434702</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>0.33596198918755699</v>
       </c>
     </row>
@@ -3982,22 +6359,22 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>0.28720095044263089</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>0.2077806767160181</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>0.18811274820848239</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.29350739600363229</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>0.25248361226357408</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>0.28168806037663902</v>
       </c>
     </row>
@@ -4005,22 +6382,22 @@
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>0.20853036660270449</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>0.13045910642578129</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>0.1002220216260583</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.21224194450544989</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>0.16895062522617141</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>0.20516807310575641</v>
       </c>
     </row>
@@ -4028,22 +6405,22 @@
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>0.23800901518450721</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>0.1910588220352171</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>0.1107513437391653</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>0.2376986745859816</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>0.18069157336322539</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>0.22231044694990729</v>
       </c>
     </row>
@@ -4051,22 +6428,22 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>0.22763592500226301</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>0.1645336906064481</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>9.1295723658316397E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>0.23604385550419801</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>0.16634642022110779</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>0.2158600989542511</v>
       </c>
     </row>
@@ -4074,22 +6451,22 @@
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>0.33595619926310238</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>0.29887140045484528</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>0.23043544082397741</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>0.33975358258390542</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>0.29484650121045758</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>0.31946736815595822</v>
       </c>
     </row>
